--- a/DateBase/orders/name002_2024-9-14.xlsx
+++ b/DateBase/orders/name002_2024-9-14.xlsx
@@ -454,8 +454,23 @@
       <c r="D2" t="str">
         <v>800 g</v>
       </c>
+      <c r="E2" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F2" t="str">
         <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>12</v>
+      </c>
+      <c r="H2" t="str">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>23.55263157894737</v>
+      </c>
+      <c r="L2">
+        <v>471.0526315789474</v>
       </c>
     </row>
     <row r="3">
@@ -471,8 +486,23 @@
       <c r="D3" t="str">
         <v>800 g</v>
       </c>
+      <c r="E3" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F3" t="str">
         <v>21</v>
+      </c>
+      <c r="G3" t="str">
+        <v>12</v>
+      </c>
+      <c r="H3" t="str">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>24.55263157894737</v>
+      </c>
+      <c r="L3">
+        <v>515.6052631578948</v>
       </c>
     </row>
     <row r="4">
@@ -488,8 +518,23 @@
       <c r="D4" t="str">
         <v>600 g</v>
       </c>
+      <c r="E4" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F4" t="str">
         <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H4" t="str">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>25.55263157894737</v>
+      </c>
+      <c r="L4">
+        <v>766.578947368421</v>
       </c>
     </row>
     <row r="5">
@@ -505,8 +550,23 @@
       <c r="D5" t="str">
         <v>600 g</v>
       </c>
+      <c r="E5" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F5" t="str">
         <v>24</v>
+      </c>
+      <c r="G5" t="str">
+        <v>12</v>
+      </c>
+      <c r="H5" t="str">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>26.55263157894737</v>
+      </c>
+      <c r="L5">
+        <v>637.2631578947369</v>
       </c>
     </row>
   </sheetData>
@@ -548,22 +608,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>204.23</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>122.32</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>231.32</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>231.42</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>213.21</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>1002.50</v>
       </c>
       <c r="G2" t="str">
         <v>020213024</v>
